--- a/DziałanieLekcjii.xlsx
+++ b/DziałanieLekcjii.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.repos\uratujzielen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5161CDC7-275B-4B08-BEA2-F373C7DCD56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5396F33B-F057-4A14-8A8C-F914605FF578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Lekcja 1</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>CzyRozwiazanieWSolution</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>poprawki</t>
+  </si>
+  <si>
+    <t>Dodać seeda, zawsze ten sam random</t>
+  </si>
+  <si>
+    <t>Baza</t>
   </si>
 </sst>
 </file>
@@ -399,18 +411,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -429,56 +442,89 @@
       <c r="G1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>

--- a/DziałanieLekcjii.xlsx
+++ b/DziałanieLekcjii.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.repos\uratujzielen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5396F33B-F057-4A14-8A8C-F914605FF578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11F0027-B3B4-4CC7-BF92-6B471F3AE039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Lekcja 1</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Baza</t>
+  </si>
+  <si>
+    <t>Nie sprawdzałem czy algorytm jest poprawny, przekopiowałem, oraz dodać seeda do randoma</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +516,18 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">

--- a/DziałanieLekcjii.xlsx
+++ b/DziałanieLekcjii.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.repos\uratujzielen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11F0027-B3B4-4CC7-BF92-6B471F3AE039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA8F962-5B6F-4B99-9693-62F031CC927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Lekcja 1</t>
   </si>
@@ -84,13 +84,19 @@
     <t>poprawki</t>
   </si>
   <si>
-    <t>Dodać seeda, zawsze ten sam random</t>
-  </si>
-  <si>
     <t>Baza</t>
   </si>
   <si>
-    <t>Nie sprawdzałem czy algorytm jest poprawny, przekopiowałem, oraz dodać seeda do randoma</t>
+    <t>Wpisywana jest poprawna liczba, test nie działa odpowiednio</t>
+  </si>
+  <si>
+    <t>BŁĄD</t>
+  </si>
+  <si>
+    <t>Dodać seeda, zawsze ten sam random // zrobione</t>
+  </si>
+  <si>
+    <t>Nie sprawdzałem czy algorytm jest poprawny, przekopiowałem, oraz dodać seeda do randoma. Nie kompiluje się</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +493,7 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -509,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -526,12 +532,24 @@
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">

--- a/DziałanieLekcjii.xlsx
+++ b/DziałanieLekcjii.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.repos\uratujzielen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA8F962-5B6F-4B99-9693-62F031CC927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE6FDDA-4F23-42EA-848E-D88082C5FD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Lekcja 1</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Nie sprawdzałem czy algorytm jest poprawny, przekopiowałem, oraz dodać seeda do randoma. Nie kompiluje się</t>
+  </si>
+  <si>
+    <t>BŁAD</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +529,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>

--- a/DziałanieLekcjii.xlsx
+++ b/DziałanieLekcjii.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.repos\uratujzielen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE6FDDA-4F23-42EA-848E-D88082C5FD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB41CBA8-71BA-4DB9-8607-A2330201FC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Lekcja 1</t>
   </si>
@@ -90,16 +90,13 @@
     <t>Wpisywana jest poprawna liczba, test nie działa odpowiednio</t>
   </si>
   <si>
-    <t>BŁĄD</t>
-  </si>
-  <si>
     <t>Dodać seeda, zawsze ten sam random // zrobione</t>
   </si>
   <si>
     <t>Nie sprawdzałem czy algorytm jest poprawny, przekopiowałem, oraz dodać seeda do randoma. Nie kompiluje się</t>
   </si>
   <si>
-    <t>BŁAD</t>
+    <t>POPR</t>
   </si>
 </sst>
 </file>
@@ -426,7 +423,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,6 +468,9 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -496,7 +496,7 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -529,13 +529,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
